--- a/biology/Botanique/Robert_Corillion/Robert_Corillion.xlsx
+++ b/biology/Botanique/Robert_Corillion/Robert_Corillion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert J. Corillion, appelé aussi le chanoine Corillion, (26 janvier 1908, Hanvec - mort le 30 décembre 1997) est un botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1925, il suit son père en Mayenne. Élève de l'École normale de Laval, de 1925 à 1928, il est instituteur à Grez-en-Bouère de 1928 à 1931. Il est ordonné prêtre du diocèse de Laval en 1938, et est professeur de botanique à l'Institution secondaire du Sacré-Cœur de Mayenne de 1938 à 1951.
 Il entre au Centre national de la recherche scientifique en 1946, et est docteur ès Sciences d'État en 1955. Professeur à la faculté des sciences de l'université catholique d'Angers en 1951, il devient doyen de cette faculté à deux reprises, jusqu'à sa transformation en instituts. Maître de recherches au CNRS (1956-1975), honoraire à partir de 1975, il est directeur adjoint, puis directeur, en 1977, de l'Institut de recherche fondamentale et appliquée. Il a exercé la présidence de Mayenne-Sciences de 1960 à 1975 (ensuite président d'honneur), et de la Société d'études scientifiques de l'Anjou de 1958 à 1971. Il sera aussi membre du bureau de la Commission historique et archéologique de la Mayenne.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses travaux sont énumérés dans une plaquette publiée par l'Institut de recherche fondamentale et appliquée d'Angers en 1975 : Regards sur un siècle de recherches en Biologie végétale (Travaux et mémoires du Laboratoire de biologie végétale et de phytogéographie), par Robert Corillion, avec la collaboration de Micheline Guerlesquin (1928-2016) et Simone Lemoyne.
 </t>
